--- a/data/Paper 2 - Charts for Emma.xlsx
+++ b/data/Paper 2 - Charts for Emma.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\My Documents\Research\paul_genever_lab\alison_w\jan_2020\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma Rand\Desktop\research\alison_w\alison_stemcell_reg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212F8D8B-CDBE-431F-8252-ADAFA0FAA48B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6630"/>
+    <workbookView xWindow="15645" yWindow="8235" windowWidth="20400" windowHeight="12825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cd_values_range" sheetId="7" r:id="rId1"/>
@@ -35,17 +36,23 @@
     <definedName name="_xlchart.v1.4" hidden="1">[2]Data!$H$5</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">[2]Data!$H$6:$H$33</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="261">
   <si>
     <t>Ref</t>
   </si>
@@ -1155,7 +1162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7344,20 +7351,23 @@
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Number of trials by Phase</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
+        <cx:txData>
+          <cx:v>Number of trials by Phase</cx:v>
+        </cx:txData>
       </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Number of trials by Phase</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
@@ -7413,20 +7423,23 @@
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Origin of Papers</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
+        <cx:txData>
+          <cx:v>Origin of Papers</cx:v>
+        </cx:txData>
       </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Origin of Papers</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
@@ -7451,20 +7464,23 @@
         <cx:catScaling gapWidth="0"/>
         <cx:title>
           <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Country</a:t>
-                </a:r>
-              </a:p>
-            </cx:rich>
+            <cx:txData>
+              <cx:v>Country</cx:v>
+            </cx:txData>
           </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t>Country</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
       </cx:axis>
@@ -7472,20 +7488,23 @@
         <cx:valScaling/>
         <cx:title>
           <cx:tx>
-            <cx:rich>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># Trials reported</a:t>
-                </a:r>
-              </a:p>
-            </cx:rich>
+            <cx:txData>
+              <cx:v># Trials reported</cx:v>
+            </cx:txData>
           </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t># Trials reported</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
@@ -12290,7 +12309,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12322,7 +12347,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12359,7 +12390,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12393,7 +12430,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Chart 6"/>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -12416,6 +12459,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1714500" y="6286500"/>
+              <a:ext cx="4572000" cy="2857500"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -12459,7 +12506,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12491,7 +12544,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12530,7 +12589,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1"/>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -12553,6 +12618,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2466975" y="190500"/>
+              <a:ext cx="4572000" cy="2907030"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -12596,7 +12665,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12628,7 +12703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12671,7 +12752,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12703,7 +12790,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -16851,11 +16944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -16959,10 +17055,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>37</v>
       </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>227</v>
       </c>
@@ -16994,10 +17093,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>237</v>
       </c>
@@ -17023,10 +17125,13 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>58</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>245</v>
       </c>
@@ -17052,10 +17157,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>63</v>
       </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>252</v>
       </c>
@@ -17076,11 +17184,6 @@
       </c>
       <c r="S5" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E10" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -17089,11 +17192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20045,18 +20151,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E106" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20071,7 +20175,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -21263,10 +21370,10 @@
     <mergeCell ref="D14:J14"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B1048576 B3:B87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89:B1048576 B3:B87" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"y, n, s, o, t"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A89:A1048576 A3:A87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A89:A1048576 A3:A87" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"I, I/IIa, IIa, II, IIb, III"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21277,7 +21384,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -22695,11 +22805,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F90">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
     <sortCondition ref="B1:B87"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B23" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"y, n, m"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22709,7 +22819,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23423,7 +23536,7 @@
     <mergeCell ref="V6:X6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"y, n, s, o, t"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23433,11 +23546,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="J2:P12"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
